--- a/2.开发管理/2018-11-21 到 12月26日  开发计划 .xlsx
+++ b/2.开发管理/2018-11-21 到 12月26日  开发计划 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A41132-4DE4-4A35-AB18-D8B6510A271F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C8CCA7-5670-4B22-93FC-1DA65CC4894F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" tabRatio="485" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="货源模块" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="137">
   <si>
     <t>模块名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,6 +581,14 @@
   </si>
   <si>
     <t>授信等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格申请单增加回款方式、产品等级、阶梯、货币单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾强、王齐龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -800,6 +808,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -816,10 +830,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1118,14 +1129,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1148,7 +1159,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1166,7 +1177,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1182,7 +1193,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1198,7 +1209,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1214,7 +1225,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1230,7 +1241,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1246,7 +1257,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1262,7 +1273,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="6" t="s">
         <v>38</v>
       </c>
@@ -1278,7 +1289,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
@@ -1294,7 +1305,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1306,7 +1317,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1318,7 +1329,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="12"/>
@@ -1326,7 +1337,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="3" t="s">
         <v>59</v>
       </c>
@@ -1342,7 +1353,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="12"/>
@@ -1350,7 +1361,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
@@ -1366,7 +1377,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="2" t="s">
         <v>74</v>
       </c>
@@ -1382,7 +1393,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="3" t="s">
         <v>75</v>
       </c>
@@ -1398,7 +1409,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="3" t="s">
         <v>76</v>
       </c>
@@ -1414,7 +1425,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="3" t="s">
         <v>77</v>
       </c>
@@ -1430,7 +1441,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="10"/>
@@ -1529,24 +1540,24 @@
       <c r="C30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="24">
         <v>43458</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="24">
         <v>43458</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="25" t="s">
         <v>129</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="24">
         <v>43458</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="24">
         <v>43458</v>
       </c>
     </row>
@@ -1557,10 +1568,10 @@
       <c r="C32" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="24">
         <v>43458</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="24">
         <v>43460</v>
       </c>
     </row>
@@ -1571,10 +1582,10 @@
       <c r="C33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="24">
         <v>43458</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="24">
         <v>43460</v>
       </c>
     </row>
@@ -1585,10 +1596,10 @@
       <c r="C34" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="24">
         <v>43458</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="24">
         <v>43460</v>
       </c>
     </row>
@@ -1623,14 +1634,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266F81DE-BC44-42CB-8658-4872D4AE7849}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="2" max="2" width="50.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="13" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="13" customWidth="1"/>
@@ -1638,14 +1649,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1668,7 +1679,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1688,7 +1699,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1704,7 +1715,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1720,7 +1731,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1736,7 +1747,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1752,7 +1763,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="10">
@@ -1764,7 +1775,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="10">
@@ -1776,7 +1787,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="5"/>
       <c r="C10" s="3"/>
       <c r="D10" s="10">
@@ -1788,7 +1799,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="5"/>
       <c r="C11" s="3"/>
       <c r="D11" s="10">
@@ -1800,7 +1811,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
       <c r="D12" s="10">
@@ -1812,7 +1823,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
       <c r="D13" s="10">
@@ -1824,7 +1835,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="10"/>
@@ -1832,7 +1843,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="3" t="s">
         <v>54</v>
       </c>
@@ -1842,7 +1853,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="18" t="s">
         <v>52</v>
       </c>
@@ -1860,7 +1871,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="3" t="s">
         <v>56</v>
       </c>
@@ -1876,7 +1887,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="3" t="s">
         <v>64</v>
       </c>
@@ -1892,7 +1903,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="3" t="s">
         <v>65</v>
       </c>
@@ -1908,7 +1919,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="3" t="s">
         <v>66</v>
       </c>
@@ -1924,7 +1935,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="12"/>
@@ -1932,7 +1943,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="3" t="s">
         <v>57</v>
       </c>
@@ -1948,7 +1959,7 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="3" t="s">
         <v>84</v>
       </c>
@@ -1966,7 +1977,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="3" t="s">
         <v>86</v>
       </c>
@@ -1982,7 +1993,7 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="3" t="s">
         <v>88</v>
       </c>
@@ -2163,7 +2174,20 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="31">
+        <v>43459</v>
+      </c>
+      <c r="E41" s="31">
+        <v>43463</v>
+      </c>
+    </row>
     <row r="42" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2210,15 +2234,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2244,7 +2268,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2265,7 +2289,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
@@ -2284,7 +2308,7 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
@@ -2303,7 +2327,7 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
@@ -2322,7 +2346,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
@@ -2341,7 +2365,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
@@ -2360,7 +2384,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2379,7 +2403,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="5"/>
       <c r="C10" s="3"/>
       <c r="D10" s="10">
@@ -2394,7 +2418,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="5"/>
       <c r="C11" s="3"/>
       <c r="D11" s="10">
@@ -2739,14 +2763,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2769,7 +2793,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2789,7 +2813,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="3" t="s">
         <v>70</v>
       </c>
@@ -2807,7 +2831,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -2815,7 +2839,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -2823,7 +2847,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -2831,7 +2855,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
@@ -2839,7 +2863,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
@@ -2847,7 +2871,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="6"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
@@ -2855,7 +2879,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="4"/>
@@ -2863,7 +2887,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="5"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -2871,7 +2895,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="5"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
@@ -2879,7 +2903,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2887,7 +2911,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="9"/>
@@ -2895,7 +2919,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2903,19 +2927,19 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
+      <c r="A17" s="28"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
+      <c r="A18" s="28"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2923,7 +2947,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2931,7 +2955,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2939,7 +2963,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -2954,10 +2978,10 @@
       <c r="C24" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="24">
         <v>43458</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="24">
         <v>43458</v>
       </c>
     </row>
@@ -2968,10 +2992,10 @@
       <c r="C25" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="24">
         <v>43459</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="24">
         <v>43459</v>
       </c>
     </row>
@@ -3021,7 +3045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667935BE-8D33-4A39-AA23-D72BD339C873}">
   <dimension ref="D1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="D13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>

--- a/2.开发管理/2018-11-21 到 12月26日  开发计划 .xlsx
+++ b/2.开发管理/2018-11-21 到 12月26日  开发计划 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C8CCA7-5670-4B22-93FC-1DA65CC4894F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C727180-AA5B-4F8B-8257-B51778792214}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" tabRatio="485" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" tabRatio="485" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="货源模块" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="147">
   <si>
     <t>模块名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -589,6 +589,46 @@
   </si>
   <si>
     <t>曾强、王齐龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/1/2日以后的功能清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子功能操作权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批按钮的操作权限要和流程对接起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符长度限制的处理（与erp接口的和数据库相关的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token验证的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同订单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erp接口对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug修正</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,7 +699,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,6 +715,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -814,6 +860,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -829,9 +878,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="31" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1114,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048570"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1129,14 +1177,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1159,7 +1207,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1177,7 +1225,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1193,7 +1241,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1209,7 +1257,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1225,7 +1273,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1241,7 +1289,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1257,7 +1305,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1273,7 +1321,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="6" t="s">
         <v>38</v>
       </c>
@@ -1289,7 +1337,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
@@ -1305,7 +1353,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1317,7 +1365,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1329,7 +1377,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="12"/>
@@ -1337,7 +1385,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="3" t="s">
         <v>59</v>
       </c>
@@ -1353,7 +1401,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="12"/>
@@ -1361,7 +1409,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
@@ -1377,7 +1425,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="2" t="s">
         <v>74</v>
       </c>
@@ -1393,7 +1441,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="3" t="s">
         <v>75</v>
       </c>
@@ -1409,7 +1457,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="3" t="s">
         <v>76</v>
       </c>
@@ -1425,7 +1473,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="3" t="s">
         <v>77</v>
       </c>
@@ -1441,7 +1489,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="10"/>
@@ -1634,7 +1682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266F81DE-BC44-42CB-8658-4872D4AE7849}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -1649,14 +1697,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1679,7 +1727,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1699,7 +1747,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1715,7 +1763,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1731,7 +1779,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1747,7 +1795,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1763,7 +1811,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="10">
@@ -1775,7 +1823,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="10">
@@ -1787,7 +1835,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="5"/>
       <c r="C10" s="3"/>
       <c r="D10" s="10">
@@ -1799,7 +1847,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="5"/>
       <c r="C11" s="3"/>
       <c r="D11" s="10">
@@ -1811,7 +1859,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
       <c r="D12" s="10">
@@ -1823,7 +1871,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
       <c r="D13" s="10">
@@ -1835,7 +1883,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="10"/>
@@ -1843,7 +1891,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="3" t="s">
         <v>54</v>
       </c>
@@ -1853,7 +1901,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="18" t="s">
         <v>52</v>
       </c>
@@ -1871,7 +1919,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="3" t="s">
         <v>56</v>
       </c>
@@ -1887,7 +1935,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="3" t="s">
         <v>64</v>
       </c>
@@ -1903,7 +1951,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="3" t="s">
         <v>65</v>
       </c>
@@ -1919,7 +1967,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="3" t="s">
         <v>66</v>
       </c>
@@ -1935,7 +1983,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="12"/>
@@ -1943,7 +1991,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="3" t="s">
         <v>57</v>
       </c>
@@ -1959,7 +2007,7 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="3" t="s">
         <v>84</v>
       </c>
@@ -1977,7 +2025,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="3" t="s">
         <v>86</v>
       </c>
@@ -1993,7 +2041,7 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="3" t="s">
         <v>88</v>
       </c>
@@ -2181,10 +2229,10 @@
       <c r="C41" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="26">
         <v>43459</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="26">
         <v>43463</v>
       </c>
     </row>
@@ -2219,7 +2267,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2234,15 +2282,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2268,7 +2316,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2289,7 +2337,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
@@ -2308,7 +2356,7 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
@@ -2327,7 +2375,7 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
@@ -2346,7 +2394,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
@@ -2365,7 +2413,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
@@ -2384,7 +2432,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2403,7 +2451,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="5"/>
       <c r="C10" s="3"/>
       <c r="D10" s="10">
@@ -2418,7 +2466,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="5"/>
       <c r="C11" s="3"/>
       <c r="D11" s="10">
@@ -2748,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0173EB7E-833A-46E2-8489-ABC81E5275CB}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2763,14 +2811,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2793,7 +2841,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2813,7 +2861,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="3" t="s">
         <v>70</v>
       </c>
@@ -2831,7 +2879,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -2839,7 +2887,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -2847,7 +2895,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -2855,7 +2903,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
@@ -2863,7 +2911,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
@@ -2871,7 +2919,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="6"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
@@ -2879,7 +2927,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="4"/>
@@ -2887,7 +2935,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="5"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -2895,7 +2943,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="5"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
@@ -2903,7 +2951,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2911,7 +2959,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="9"/>
@@ -2919,7 +2967,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2927,19 +2975,19 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+      <c r="A17" s="29"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
+      <c r="A18" s="29"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2947,7 +2995,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2955,7 +3003,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2963,7 +3011,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3043,16 +3091,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667935BE-8D33-4A39-AA23-D72BD339C873}">
-  <dimension ref="D1:G22"/>
+  <dimension ref="D1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3337,6 +3385,59 @@
         <v>43455</v>
       </c>
     </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2.开发管理/2018-11-21 到 12月26日  开发计划 .xlsx
+++ b/2.开发管理/2018-11-21 到 12月26日  开发计划 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C727180-AA5B-4F8B-8257-B51778792214}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C774B8D1-698C-4AFB-ACDE-967B882DDA83}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" tabRatio="485" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="148">
   <si>
     <t>模块名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -629,6 +629,10 @@
   </si>
   <si>
     <t>bug修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马超、杨新强</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -863,6 +867,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="31" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -878,8 +884,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1177,14 +1181,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1207,7 +1211,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1225,7 +1229,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1241,7 +1245,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1257,7 +1261,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1273,7 +1277,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1289,7 +1293,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1305,7 +1309,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1321,7 +1325,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="6" t="s">
         <v>38</v>
       </c>
@@ -1337,7 +1341,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
@@ -1353,7 +1357,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1365,7 +1369,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1377,7 +1381,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="12"/>
@@ -1385,7 +1389,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="3" t="s">
         <v>59</v>
       </c>
@@ -1401,7 +1405,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="12"/>
@@ -1409,7 +1413,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
@@ -1425,7 +1429,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="2" t="s">
         <v>74</v>
       </c>
@@ -1441,7 +1445,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="3" t="s">
         <v>75</v>
       </c>
@@ -1457,7 +1461,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="3" t="s">
         <v>76</v>
       </c>
@@ -1473,7 +1477,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="3" t="s">
         <v>77</v>
       </c>
@@ -1489,7 +1493,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="10"/>
@@ -1697,14 +1701,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1727,7 +1731,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1747,7 +1751,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1763,7 +1767,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1779,7 +1783,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1795,7 +1799,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1811,7 +1815,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="10">
@@ -1823,7 +1827,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="10">
@@ -1835,7 +1839,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="5"/>
       <c r="C10" s="3"/>
       <c r="D10" s="10">
@@ -1847,7 +1851,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="5"/>
       <c r="C11" s="3"/>
       <c r="D11" s="10">
@@ -1859,7 +1863,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
       <c r="D12" s="10">
@@ -1871,7 +1875,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
       <c r="D13" s="10">
@@ -1883,7 +1887,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="10"/>
@@ -1891,7 +1895,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="3" t="s">
         <v>54</v>
       </c>
@@ -1901,7 +1905,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="18" t="s">
         <v>52</v>
       </c>
@@ -1919,7 +1923,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="3" t="s">
         <v>56</v>
       </c>
@@ -1935,7 +1939,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="3" t="s">
         <v>64</v>
       </c>
@@ -1951,7 +1955,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3" t="s">
         <v>65</v>
       </c>
@@ -1967,7 +1971,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="3" t="s">
         <v>66</v>
       </c>
@@ -1983,7 +1987,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="12"/>
@@ -1991,7 +1995,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="3" t="s">
         <v>57</v>
       </c>
@@ -2007,7 +2011,7 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="3" t="s">
         <v>84</v>
       </c>
@@ -2025,7 +2029,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="3" t="s">
         <v>86</v>
       </c>
@@ -2041,7 +2045,7 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="3" t="s">
         <v>88</v>
       </c>
@@ -2282,15 +2286,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2316,7 +2320,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2337,7 +2341,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
@@ -2356,7 +2360,7 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
@@ -2375,7 +2379,7 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
@@ -2394,7 +2398,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
@@ -2413,7 +2417,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
@@ -2432,7 +2436,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2451,7 +2455,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="5"/>
       <c r="C10" s="3"/>
       <c r="D10" s="10">
@@ -2466,7 +2470,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="5"/>
       <c r="C11" s="3"/>
       <c r="D11" s="10">
@@ -2811,14 +2815,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2841,7 +2845,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2861,7 +2865,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="3" t="s">
         <v>70</v>
       </c>
@@ -2879,7 +2883,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -2887,7 +2891,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -2895,7 +2899,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -2903,7 +2907,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
@@ -2911,7 +2915,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
@@ -2919,7 +2923,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="6"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
@@ -2927,7 +2931,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="4"/>
@@ -2935,7 +2939,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="5"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -2943,7 +2947,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="5"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
@@ -2951,7 +2955,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2959,7 +2963,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="9"/>
@@ -2967,7 +2971,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2975,19 +2979,19 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
+      <c r="A17" s="31"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
+      <c r="A18" s="31"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2995,7 +2999,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -3003,7 +3007,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -3011,7 +3015,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3093,8 +3097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667935BE-8D33-4A39-AA23-D72BD339C873}">
   <dimension ref="D1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3386,12 +3390,12 @@
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
@@ -3402,6 +3406,9 @@
       <c r="D26" t="s">
         <v>138</v>
       </c>
+      <c r="E26" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
@@ -3416,6 +3423,9 @@
     <row r="30" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>142</v>
+      </c>
+      <c r="E30" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.2">

--- a/2.开发管理/2018-11-21 到 12月26日  开发计划 .xlsx
+++ b/2.开发管理/2018-11-21 到 12月26日  开发计划 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C774B8D1-698C-4AFB-ACDE-967B882DDA83}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D96EF34-21CE-48FC-9808-104025D753F9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" tabRatio="485" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" tabRatio="485" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="货源模块" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="信用模块" sheetId="7" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="156">
   <si>
     <t>模块名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -633,6 +633,38 @@
   </si>
   <si>
     <t>马超、杨新强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦后，新原型修改了新的表结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位占用释放接口实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授信申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南海晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货源接口多线程测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织授信额度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织授信额度明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王浩宇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1167,7 +1199,7 @@
   <dimension ref="A1:F1048570"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1656,9 +1688,45 @@
       </c>
     </row>
     <row r="35" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="26">
+        <v>43470</v>
+      </c>
+      <c r="E36" s="26">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="26">
+        <v>43473</v>
+      </c>
+      <c r="E37" s="26">
+        <v>43474</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="26">
+        <v>43473</v>
+      </c>
+      <c r="E38" s="26">
+        <v>43474</v>
+      </c>
+    </row>
     <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2800,8 +2868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0173EB7E-833A-46E2-8489-ABC81E5275CB}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3051,29 +3119,95 @@
         <v>43459</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="24">
+        <v>43468</v>
+      </c>
+      <c r="E27" s="24">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="24">
+        <v>43468</v>
+      </c>
+      <c r="E28" s="24">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="24">
+        <v>43472</v>
+      </c>
+    </row>
     <row r="30" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="19">
+        <v>43467</v>
+      </c>
+      <c r="E32" s="19">
+        <v>43473</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="19">
+        <v>43467</v>
+      </c>
+      <c r="E33" s="19">
+        <v>43473</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3095,10 +3229,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667935BE-8D33-4A39-AA23-D72BD339C873}">
-  <dimension ref="D1:G35"/>
+  <dimension ref="D1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="D19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3438,14 +3572,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="26">
+        <v>43470</v>
+      </c>
+      <c r="G37" s="26">
+        <v>43472</v>
       </c>
     </row>
   </sheetData>
